--- a/CVOE/4 Older Adults/Older adult output.xlsx
+++ b/CVOE/4 Older Adults/Older adult output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\Spring-2019-Projects\CVOE\4 Older Adults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{50DABFF8-1D75-4658-AA54-2905C4EC2818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AC6210A6-EAB8-481E-B086-E58FDBD341E0}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{50DABFF8-1D75-4658-AA54-2905C4EC2818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E3BEE470-FCE9-4F1C-8681-DA9FDCBFBEC9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{D5B60406-AAC6-4209-A403-2F8A9030D6C0}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0710BD-9F1F-44A7-8C72-3AC2014B06FD}">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9:AG10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1270,7 @@
         <v>328.11729829213999</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:N10" si="9">AVERAGE(M2:M7)</f>
+        <f t="shared" ref="M9:N9" si="9">AVERAGE(M2:M7)</f>
         <v>2146.1666959219028</v>
       </c>
       <c r="N9">
@@ -1481,8 +1481,128 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <f>B10/SQRT(6)</f>
+        <v>376.78195203379113</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:P11" si="18">C10/SQRT(6)</f>
+        <v>548.05941201536723</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="18"/>
+        <v>387.28922273517907</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="18"/>
+        <v>598.11304204270448</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="18"/>
+        <v>318.58294585843487</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="18"/>
+        <v>338.13816443438094</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="18"/>
+        <v>232.95420156785787</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="18"/>
+        <v>478.88865289658179</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="18"/>
+        <v>371.09453108671391</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="18"/>
+        <v>290.78984921939826</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="18"/>
+        <v>163.95461680478513</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="18"/>
+        <v>893.85549462517815</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="18"/>
+        <v>1057.7192049752307</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="18"/>
+        <v>204.60651611783359</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="18"/>
+        <v>163.86371035005234</v>
+      </c>
       <c r="R11" t="s">
         <v>21</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:AG11" si="19">S10/SQRT(6)</f>
+        <v>1.2028130608117211E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="19"/>
+        <v>6.6951791897391436E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="19"/>
+        <v>3.7765903975496423E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="19"/>
+        <v>8.8071327013820436E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="19"/>
+        <v>8.9890295147445606E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="19"/>
+        <v>8.4821058828638676E-2</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="19"/>
+        <v>6.4006777986213514E-2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="19"/>
+        <v>5.4410807297409276E-2</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="19"/>
+        <v>3.2768177778417312E-2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="19"/>
+        <v>8.9946622721302806E-3</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="19"/>
+        <v>2.4812791890957718E-2</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="19"/>
+        <v>7.6091792479070289E-2</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="19"/>
+        <v>8.5583751987030346E-2</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="19"/>
+        <v>4.1455267464812331E-2</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="19"/>
+        <v>1.2961116786923806E-2</v>
       </c>
     </row>
   </sheetData>

--- a/CVOE/4 Older Adults/Older adult output.xlsx
+++ b/CVOE/4 Older Adults/Older adult output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\Spring-2019-Projects\CVOE\4 Older Adults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{50DABFF8-1D75-4658-AA54-2905C4EC2818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E3BEE470-FCE9-4F1C-8681-DA9FDCBFBEC9}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{50DABFF8-1D75-4658-AA54-2905C4EC2818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A349A7F6-CA44-4E2C-AEE1-05319A425127}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{D5B60406-AAC6-4209-A403-2F8A9030D6C0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Sub</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Local Switch</t>
+  </si>
+  <si>
+    <t>upper 95%</t>
+  </si>
+  <si>
+    <t>lower 95%</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -184,6 +190,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0710BD-9F1F-44A7-8C72-3AC2014B06FD}">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,6 +1612,262 @@
         <v>1.2961116786923806E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <f>(B9 +1.96*(B11))</f>
+        <v>2062.9705864277876</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:P12" si="20">(C9 +1.96*(C11))</f>
+        <v>2822.7751252787034</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="20"/>
+        <v>2295.6151956460208</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="20"/>
+        <v>4084.1969813496876</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="20"/>
+        <v>3140.2652729197989</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="20"/>
+        <v>2767.3587933900635</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="20"/>
+        <v>2233.0809278795396</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="20"/>
+        <v>1917.9361396294969</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="20"/>
+        <v>967.30765465142611</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="20"/>
+        <v>966.00082437873812</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="20"/>
+        <v>649.46834722951883</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="20"/>
+        <v>3898.1234653872521</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="20"/>
+        <v>4581.3813467737837</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="20"/>
+        <v>1010.6671484277857</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="20"/>
+        <v>683.25788138653138</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:AG12" si="21">(S9 +1.96*(S11))</f>
+        <v>6.5241802658576403E-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="21"/>
+        <v>0.2631699565633317</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="21"/>
+        <v>0.16082672734752851</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="21"/>
+        <v>0.36567535650264349</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="21"/>
+        <v>0.37290628996440311</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="21"/>
+        <v>0.35833967078435769</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="21"/>
+        <v>0.26206530671090206</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="21"/>
+        <v>0.21656093822277653</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="21"/>
+        <v>0.11403209474806578</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="21"/>
+        <v>1.3963782133521039E-2</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="21"/>
+        <v>0.10411144572857967</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="21"/>
+        <v>0.31580657992564443</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="21"/>
+        <v>0.36031712941247018</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="21"/>
+        <v>0.16111343534214326</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="21"/>
+        <v>5.1310097753594769E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <f>(B9 -1.96*(B11))</f>
+        <v>585.98533445532632</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:P13" si="22">(C9 -1.96*(C11))</f>
+        <v>674.38223017846394</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="22"/>
+        <v>777.44144252411866</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="22"/>
+        <v>1739.5938565422862</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="22"/>
+        <v>1891.4201251547345</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="22"/>
+        <v>1441.8571888072902</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="22"/>
+        <v>1319.9004577335368</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="22"/>
+        <v>40.692620274896399</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="22"/>
+        <v>-487.38290720849238</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="22"/>
+        <v>-173.89538456130293</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="22"/>
+        <v>6.7662493547611575</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="22"/>
+        <v>394.2099264565536</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="22"/>
+        <v>435.12206327087961</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="22"/>
+        <v>208.60960524587802</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="22"/>
+        <v>40.912136814326232</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:AG13" si="23">(S9 -1.96*(S11))</f>
+        <v>1.8091530674756932E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="23"/>
+        <v>7.1893232555725328E-4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="23"/>
+        <v>1.2784383763582541E-2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="23"/>
+        <v>2.0435754608467388E-2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="23"/>
+        <v>2.0536332986416356E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="23"/>
+        <v>2.5841120176094107E-2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="23"/>
+        <v>1.1158737004945074E-2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="23"/>
+        <v>3.2705736169321709E-3</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="23"/>
+        <v>-1.4419162143330083E-2</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="23"/>
+        <v>-2.129529397322966E-2</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="23"/>
+        <v>6.845301516025408E-3</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="23"/>
+        <v>1.7526753407688889E-2</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="23"/>
+        <v>2.4828821623311209E-2</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="23"/>
+        <v>-1.3912131199210753E-3</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="23"/>
+        <v>5.0251994885345402E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
